--- a/tabla_ejemplo.xlsx
+++ b/tabla_ejemplo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Sample id</t>
   </si>
@@ -211,12 +211,6 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
     <t>Muestra1</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
   </si>
   <si>
     <t>Muestra9</t>
-  </si>
-  <si>
-    <t>Muestra10</t>
   </si>
 </sst>
 </file>
@@ -733,48 +724,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1073,13 +1064,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1241,7 +1232,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -1396,7 +1387,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -1551,7 +1542,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -1706,7 +1697,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1861,7 +1852,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -2016,7 +2007,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -2171,7 +2162,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -2326,7 +2317,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -2481,7 +2472,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -2632,161 +2623,6 @@
       </c>
       <c r="AY10">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>17</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
-      <c r="P11">
-        <v>11</v>
-      </c>
-      <c r="Q11">
-        <v>14</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="S11">
-        <v>12</v>
-      </c>
-      <c r="T11">
-        <v>17</v>
-      </c>
-      <c r="U11">
-        <v>18</v>
-      </c>
-      <c r="V11">
-        <v>13</v>
-      </c>
-      <c r="W11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X11">
-        <v>16</v>
-      </c>
-      <c r="Y11">
-        <v>18</v>
-      </c>
-      <c r="Z11">
-        <v>11</v>
-      </c>
-      <c r="AA11">
-        <v>11</v>
-      </c>
-      <c r="AB11">
-        <v>15</v>
-      </c>
-      <c r="AC11">
-        <v>20</v>
-      </c>
-      <c r="AD11">
-        <v>11</v>
-      </c>
-      <c r="AE11">
-        <v>12</v>
-      </c>
-      <c r="AF11">
-        <v>22</v>
-      </c>
-      <c r="AG11">
-        <v>23</v>
-      </c>
-      <c r="AH11">
-        <v>5</v>
-      </c>
-      <c r="AI11">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK11">
-        <v>12</v>
-      </c>
-      <c r="AL11">
-        <v>15</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN11">
-        <v>11</v>
-      </c>
-      <c r="AO11">
-        <v>17</v>
-      </c>
-      <c r="AP11">
-        <v>20</v>
-      </c>
-      <c r="AQ11">
-        <v>24</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS11">
-        <v>14</v>
-      </c>
-      <c r="AT11">
-        <v>11</v>
-      </c>
-      <c r="AU11">
-        <v>16</v>
-      </c>
-      <c r="AV11">
-        <v>19</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX11">
-        <v>13</v>
-      </c>
-      <c r="AY11">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
